--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +982,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1017,28 +1029,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1075,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1549,10 +1561,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1596,28 +1608,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1642,28 +1654,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2157,10 +2169,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2204,28 +2216,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2250,28 +2262,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2823,10 +2835,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2870,28 +2882,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2916,28 +2928,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3286,10 +3298,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3333,28 +3345,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3379,28 +3391,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3691,10 +3703,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3738,28 +3750,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3784,28 +3796,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3980,10 +3992,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4027,28 +4039,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4073,28 +4085,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4211,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
